--- a/examples/oucru/oucru-42dx/resources/outputs/templates/ccfgs_42dx_data_fixed.xlsx
+++ b/examples/oucru/oucru-42dx/resources/outputs/templates/ccfgs_42dx_data_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-42dx\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16666623-FB18-4C3C-BE42-7D52E44593B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E719F28A-F157-4CCF-AC79-053DF43CD8BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27015" yWindow="1215" windowWidth="24255" windowHeight="16470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="930" windowWidth="19575" windowHeight="16470" firstSheet="12" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HIST_DM" sheetId="1" r:id="rId1"/>
@@ -4577,8 +4577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7078,9 +7078,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -7385,9 +7399,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -8238,9 +8266,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
